--- a/Test/Tore/Tore.xlsx
+++ b/Test/Tore/Tore.xlsx
@@ -345,10 +345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D8"/>
+  <dimension ref="B1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,6 +441,50 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test/Tore/Tore.xlsx
+++ b/Test/Tore/Tore.xlsx
@@ -345,10 +345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D12"/>
+  <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,6 +485,39 @@
         <v>8</v>
       </c>
     </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test/Tore/Tore.xlsx
+++ b/Test/Tore/Tore.xlsx
@@ -345,10 +345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D15"/>
+  <dimension ref="B1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,6 +518,28 @@
         <v>6</v>
       </c>
     </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test/Tore/Tore.xlsx
+++ b/Test/Tore/Tore.xlsx
@@ -345,10 +345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D17"/>
+  <dimension ref="B1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,6 +540,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
